--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H2">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I2">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J2">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N2">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O2">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P2">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q2">
-        <v>16.70119113649778</v>
+        <v>29.34616496087344</v>
       </c>
       <c r="R2">
-        <v>150.31072022848</v>
+        <v>264.115484647861</v>
       </c>
       <c r="S2">
-        <v>0.00513513482458238</v>
+        <v>0.01156608594748862</v>
       </c>
       <c r="T2">
-        <v>0.005135134824582381</v>
+        <v>0.01156608594748862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H3">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I3">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J3">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q3">
-        <v>44.84614761271612</v>
+        <v>154.0980016351328</v>
       </c>
       <c r="R3">
-        <v>403.615328514445</v>
+        <v>1386.882014716195</v>
       </c>
       <c r="S3">
-        <v>0.01378889759851657</v>
+        <v>0.06073402550638223</v>
       </c>
       <c r="T3">
-        <v>0.01378889759851657</v>
+        <v>0.06073402550638222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H4">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I4">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J4">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N4">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q4">
-        <v>20.30523272720578</v>
+        <v>76.83609558154643</v>
       </c>
       <c r="R4">
-        <v>182.747094544852</v>
+        <v>691.5248602339179</v>
       </c>
       <c r="S4">
-        <v>0.006243273719013886</v>
+        <v>0.03028310126895593</v>
       </c>
       <c r="T4">
-        <v>0.006243273719013886</v>
+        <v>0.03028310126895593</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H5">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I5">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J5">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N5">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q5">
-        <v>64.1486119089649</v>
+        <v>182.4427820047813</v>
       </c>
       <c r="R5">
-        <v>577.337507180684</v>
+        <v>1641.985038043032</v>
       </c>
       <c r="S5">
-        <v>0.01972384893209616</v>
+        <v>0.07190543977312346</v>
       </c>
       <c r="T5">
-        <v>0.01972384893209616</v>
+        <v>0.07190543977312344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>13.593464</v>
       </c>
       <c r="I6">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J6">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N6">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O6">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P6">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q6">
-        <v>144.2149324532623</v>
+        <v>73.74664616615021</v>
       </c>
       <c r="R6">
-        <v>1297.93439207936</v>
+        <v>663.7198154953519</v>
       </c>
       <c r="S6">
-        <v>0.04434193440533475</v>
+        <v>0.02906546899855424</v>
       </c>
       <c r="T6">
-        <v>0.04434193440533476</v>
+        <v>0.02906546899855424</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>13.593464</v>
       </c>
       <c r="I7">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J7">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q7">
         <v>387.246879333249</v>
       </c>
       <c r="R7">
-        <v>3485.221913999241</v>
+        <v>3485.22191399924</v>
       </c>
       <c r="S7">
-        <v>0.119067252121277</v>
+        <v>0.1526240548036436</v>
       </c>
       <c r="T7">
-        <v>0.119067252121277</v>
+        <v>0.1526240548036436</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>13.593464</v>
       </c>
       <c r="I8">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J8">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N8">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q8">
-        <v>175.3358633087182</v>
+        <v>193.0884107410862</v>
       </c>
       <c r="R8">
-        <v>1578.022769778464</v>
+        <v>1737.795696669776</v>
       </c>
       <c r="S8">
-        <v>0.05391072351164183</v>
+        <v>0.07610115860361873</v>
       </c>
       <c r="T8">
-        <v>0.05391072351164183</v>
+        <v>0.07610115860361873</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>13.593464</v>
       </c>
       <c r="I9">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J9">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N9">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q9">
-        <v>553.9238284151431</v>
+        <v>458.4770551114026</v>
       </c>
       <c r="R9">
-        <v>4985.314455736288</v>
+        <v>4126.293496002623</v>
       </c>
       <c r="S9">
-        <v>0.1703156091211037</v>
+        <v>0.1806977174509869</v>
       </c>
       <c r="T9">
-        <v>0.1703156091211037</v>
+        <v>0.1806977174509869</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H10">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I10">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J10">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N10">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O10">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P10">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q10">
-        <v>208.5750652085334</v>
+        <v>63.40279108456456</v>
       </c>
       <c r="R10">
-        <v>1877.175586876801</v>
+        <v>570.625119761081</v>
       </c>
       <c r="S10">
-        <v>0.06413081990009972</v>
+        <v>0.024988687004672</v>
       </c>
       <c r="T10">
-        <v>0.06413081990009972</v>
+        <v>0.024988687004672</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H11">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I11">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J11">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q11">
-        <v>560.0671285195085</v>
+        <v>332.9308418066773</v>
       </c>
       <c r="R11">
-        <v>5040.604156675577</v>
+        <v>2996.377576260096</v>
       </c>
       <c r="S11">
-        <v>0.1722044968085721</v>
+        <v>0.131216693426205</v>
       </c>
       <c r="T11">
-        <v>0.1722044968085721</v>
+        <v>0.131216693426205</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H12">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I12">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J12">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N12">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q12">
-        <v>253.5846219313134</v>
+        <v>166.0054362266976</v>
       </c>
       <c r="R12">
-        <v>2282.26159738182</v>
+        <v>1494.048926040278</v>
       </c>
       <c r="S12">
-        <v>0.07796996108932097</v>
+        <v>0.06542705480284257</v>
       </c>
       <c r="T12">
-        <v>0.07796996108932097</v>
+        <v>0.06542705480284258</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H13">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I13">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J13">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N13">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q13">
-        <v>801.1285424253268</v>
+        <v>394.1701277750747</v>
       </c>
       <c r="R13">
-        <v>7210.156881827941</v>
+        <v>3547.531149975672</v>
       </c>
       <c r="S13">
-        <v>0.2463239324400607</v>
+        <v>0.1553526868624061</v>
       </c>
       <c r="T13">
-        <v>0.2463239324400607</v>
+        <v>0.1553526868624061</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H14">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I14">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J14">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N14">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O14">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P14">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q14">
-        <v>2.546267330631112</v>
+        <v>1.688199663748889</v>
       </c>
       <c r="R14">
-        <v>22.91640597568001</v>
+        <v>15.19379697374</v>
       </c>
       <c r="S14">
-        <v>0.0007829038022112082</v>
+        <v>0.0006653633424835722</v>
       </c>
       <c r="T14">
-        <v>0.0007829038022112082</v>
+        <v>0.0006653633424835721</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H15">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I15">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J15">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>256.389535</v>
       </c>
       <c r="O15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q15">
-        <v>6.837253680749447</v>
+        <v>8.864810611255558</v>
       </c>
       <c r="R15">
-        <v>61.53528312674501</v>
+        <v>79.78329550130002</v>
       </c>
       <c r="S15">
-        <v>0.002102258407413396</v>
+        <v>0.003493852146428446</v>
       </c>
       <c r="T15">
-        <v>0.002102258407413396</v>
+        <v>0.003493852146428446</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H16">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I16">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J16">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N16">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q16">
-        <v>3.095740316459112</v>
+        <v>4.420157485568889</v>
       </c>
       <c r="R16">
-        <v>27.861662848132</v>
+        <v>39.78141737012</v>
       </c>
       <c r="S16">
-        <v>0.0009518509055424447</v>
+        <v>0.001742098889162768</v>
       </c>
       <c r="T16">
-        <v>0.0009518509055424446</v>
+        <v>0.001742098889162768</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H17">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I17">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J17">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N17">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q17">
-        <v>9.780111698271558</v>
+        <v>10.49540352698667</v>
       </c>
       <c r="R17">
-        <v>88.02100528444402</v>
+        <v>94.45863174287999</v>
       </c>
       <c r="S17">
-        <v>0.003007102413213345</v>
+        <v>0.004136511173045965</v>
       </c>
       <c r="T17">
-        <v>0.003007102413213345</v>
+        <v>0.004136511173045965</v>
       </c>
     </row>
   </sheetData>
